--- a/src/main/resources/RegisterData.xlsx
+++ b/src/main/resources/RegisterData.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAB037C7-483B-49D2-8488-2C1CC162CC9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCC305DE-17AE-470F-9F4E-7661C578F025}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-104" yWindow="-104" windowWidth="22326" windowHeight="12004" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -404,7 +404,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -464,7 +464,7 @@
         <v>6</v>
       </c>
       <c r="F2" s="1">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>9</v>
